--- a/data/trans_orig/P78C_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P78C_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>285170</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260207</v>
+        <v>258246</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>309508</v>
+        <v>308307</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5197415968414183</v>
+        <v>0.5197415968414184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.474243839798015</v>
+        <v>0.4706696039442334</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5640982126234426</v>
+        <v>0.5619090024365458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>469</v>
@@ -762,19 +762,19 @@
         <v>331611</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>313481</v>
+        <v>312745</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>348079</v>
+        <v>348484</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6798869701437141</v>
+        <v>0.679886970143714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6427152664540161</v>
+        <v>0.6412065407324428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7136511907009597</v>
+        <v>0.7144818249888883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>742</v>
@@ -783,19 +783,19 @@
         <v>616781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>586822</v>
+        <v>588357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>648733</v>
+        <v>650488</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5951066909419659</v>
+        <v>0.5951066909419658</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5662007286086919</v>
+        <v>0.5676818634318288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6259360327693301</v>
+        <v>0.6276295917726562</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>90064</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74653</v>
+        <v>73600</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109860</v>
+        <v>106001</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1641468662682535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1360608472901836</v>
+        <v>0.1341415010209339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2002270889753564</v>
+        <v>0.1931945570169263</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -833,19 +833,19 @@
         <v>48480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38660</v>
+        <v>37769</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60856</v>
+        <v>60020</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09939554386331652</v>
+        <v>0.09939554386331649</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07926302911534006</v>
+        <v>0.07743658435285336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1247696463507322</v>
+        <v>0.1230553758937624</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>161</v>
@@ -854,19 +854,19 @@
         <v>138543</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>119132</v>
+        <v>118249</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>160851</v>
+        <v>159056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1336746184252182</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.114945471979268</v>
+        <v>0.1140937938168691</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1551988773659184</v>
+        <v>0.1534663211309994</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>13109</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7332</v>
+        <v>7839</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22287</v>
+        <v>22367</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02389245929255255</v>
+        <v>0.02389245929255256</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01336248599163284</v>
+        <v>0.01428753873543136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04061981005260071</v>
+        <v>0.04076539215712472</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -904,19 +904,19 @@
         <v>3183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1138</v>
+        <v>1143</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7374</v>
+        <v>7346</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.006526211876369923</v>
+        <v>0.006526211876369922</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002333030386127301</v>
+        <v>0.002344368264042651</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0151192364291129</v>
+        <v>0.01506099130800655</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -925,19 +925,19 @@
         <v>16292</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10405</v>
+        <v>10305</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>26055</v>
+        <v>25209</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01571982936447189</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0100390797332391</v>
+        <v>0.009942410362019339</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02513940228359042</v>
+        <v>0.02432273418340871</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>28774</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20124</v>
+        <v>18857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43522</v>
+        <v>41987</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0524418614165895</v>
+        <v>0.05244186141658951</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03667662440600727</v>
+        <v>0.03436826004912059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07932196510492687</v>
+        <v>0.07652375826696417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -975,19 +975,19 @@
         <v>12987</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7468</v>
+        <v>7806</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20780</v>
+        <v>21066</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0266263592733731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01531173326422387</v>
+        <v>0.01600437218189566</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04260450294301311</v>
+        <v>0.04319119943736121</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -996,19 +996,19 @@
         <v>41760</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30177</v>
+        <v>30472</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56636</v>
+        <v>57920</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04029297626207536</v>
+        <v>0.04029297626207535</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02911640830944122</v>
+        <v>0.02940096298660622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0546456022848765</v>
+        <v>0.05588430274445935</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>34328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>24838</v>
+        <v>24502</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45965</v>
+        <v>46058</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06256469104188198</v>
+        <v>0.06256469104188199</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04526851490936266</v>
+        <v>0.04465674146506565</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08377384820115678</v>
+        <v>0.08394357430842744</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1046,19 +1046,19 @@
         <v>17787</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12174</v>
+        <v>12142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25602</v>
+        <v>26300</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0364682459210332</v>
+        <v>0.03646824592103319</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02495917013780222</v>
+        <v>0.02489355655716854</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05248997605873108</v>
+        <v>0.0539225530058049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>69</v>
@@ -1067,19 +1067,19 @@
         <v>52115</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>40319</v>
+        <v>40467</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64963</v>
+        <v>65835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05028359292667126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03890208593887892</v>
+        <v>0.03904454888516369</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06268030625753489</v>
+        <v>0.06352131583616223</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>22361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14226</v>
+        <v>14978</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33542</v>
+        <v>31988</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04075355687163574</v>
+        <v>0.04075355687163576</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02592825398055668</v>
+        <v>0.02729761153650986</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06113309855634631</v>
+        <v>0.05830063446793731</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1117,19 +1117,19 @@
         <v>4572</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1942</v>
+        <v>2006</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8736</v>
+        <v>9173</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.009374788381089709</v>
+        <v>0.009374788381089707</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00398091558764885</v>
+        <v>0.00411305902084914</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01791138945921836</v>
+        <v>0.0188063726459752</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>30</v>
@@ -1138,19 +1138,19 @@
         <v>26933</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17514</v>
+        <v>18383</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37838</v>
+        <v>37852</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02598657490216418</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01689844220082857</v>
+        <v>0.01773701720113151</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03650832754840552</v>
+        <v>0.03652189575795085</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>74872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60180</v>
+        <v>60845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90840</v>
+        <v>93048</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1364589682676683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1096820127666852</v>
+        <v>0.1108933310524795</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1655616237844745</v>
+        <v>0.1695855895321672</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -1188,19 +1188,19 @@
         <v>69124</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>56346</v>
+        <v>56075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84848</v>
+        <v>84316</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1417218805411035</v>
+        <v>0.1417218805411034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.115523499906376</v>
+        <v>0.1149672303142348</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1739605379879852</v>
+        <v>0.1728701866325587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -1209,19 +1209,19 @@
         <v>143996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122956</v>
+        <v>123408</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165361</v>
+        <v>167285</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1389357171774333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1186356357196719</v>
+        <v>0.1190712458119167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1595499822728998</v>
+        <v>0.1614062140451593</v>
       </c>
     </row>
     <row r="11">
@@ -1313,19 +1313,19 @@
         <v>361062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>340660</v>
+        <v>340898</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>378508</v>
+        <v>379641</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7498882138170195</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7075150937019408</v>
+        <v>0.7080096046490896</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7861214228561217</v>
+        <v>0.7884750669464041</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>497</v>
@@ -1334,19 +1334,19 @@
         <v>358277</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>344892</v>
+        <v>345649</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>369360</v>
+        <v>370652</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8510758809800598</v>
+        <v>0.8510758809800596</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8192818102850247</v>
+        <v>0.8210793073696695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8774037445540424</v>
+        <v>0.8804744607817135</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>854</v>
@@ -1355,19 +1355,19 @@
         <v>719339</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>697486</v>
+        <v>694529</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>742272</v>
+        <v>743071</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7970891944361788</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7728739782083162</v>
+        <v>0.7695983957231528</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8225010295443601</v>
+        <v>0.8233867734401272</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>71730</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57941</v>
+        <v>57360</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89777</v>
+        <v>88241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1489756207684912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1203367333031184</v>
+        <v>0.1191303762891509</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1864579498259682</v>
+        <v>0.183266880311434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1405,19 +1405,19 @@
         <v>27822</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20075</v>
+        <v>20774</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37515</v>
+        <v>37177</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06609095637076809</v>
+        <v>0.06609095637076808</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0476864144362925</v>
+        <v>0.04934776872427004</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08911489512953989</v>
+        <v>0.08831360908942686</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1426,19 +1426,19 @@
         <v>99552</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>81945</v>
+        <v>81036</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118485</v>
+        <v>119871</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1103124363355623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09080201618616209</v>
+        <v>0.08979509043827019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1312913206206792</v>
+        <v>0.1328274107075997</v>
       </c>
     </row>
     <row r="14">
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4327</v>
+        <v>3766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001541579214616868</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008986218554647171</v>
+        <v>0.007821674622914701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6061</v>
+        <v>6628</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004210368526087498</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01439734447812539</v>
+        <v>0.01574405513669121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1497,19 +1497,19 @@
         <v>2515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7237</v>
+        <v>7319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00278648856077636</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0007899859972176527</v>
+        <v>0.0007799992559339368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008019699148655558</v>
+        <v>0.008109568015676557</v>
       </c>
     </row>
     <row r="15">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6295</v>
+        <v>6531</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00373165873381764</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01307427994551644</v>
+        <v>0.01356464187876986</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -1547,19 +1547,19 @@
         <v>2498</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>789</v>
+        <v>620</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6593</v>
+        <v>5884</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005932912849156373</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.001874196698051877</v>
+        <v>0.001471686517014164</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01566073832911982</v>
+        <v>0.0139774403762573</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1568,19 +1568,19 @@
         <v>4294</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1622</v>
+        <v>1691</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>9667</v>
+        <v>9235</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004758477077880613</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001796790428421599</v>
+        <v>0.001873833958901727</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01071240119606647</v>
+        <v>0.01023283282460875</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>7942</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3592</v>
+        <v>3385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14793</v>
+        <v>14232</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01649554623612283</v>
+        <v>0.01649554623612282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007459805350858367</v>
+        <v>0.007029559255125817</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03072342517554651</v>
+        <v>0.02955894516119469</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1618,19 +1618,19 @@
         <v>7978</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4181</v>
+        <v>4387</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14081</v>
+        <v>14719</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01895200950754111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0099310071455314</v>
+        <v>0.01042060414279012</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03344791047680239</v>
+        <v>0.03496569715679013</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1639,19 +1639,19 @@
         <v>15921</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10003</v>
+        <v>9994</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24605</v>
+        <v>24837</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01764141191834148</v>
+        <v>0.01764141191834147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01108469829655108</v>
+        <v>0.01107455053594326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02726440460269068</v>
+        <v>0.02752120405970566</v>
       </c>
     </row>
     <row r="17">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5255</v>
+        <v>5595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002050881286689347</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01091335813921235</v>
+        <v>0.01162014057024996</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1689,19 +1689,19 @@
         <v>1848</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5255</v>
+        <v>5137</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.004389383567470129</v>
+        <v>0.00438938356747013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001202367237210018</v>
+        <v>0.001207828972731604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01248316555590317</v>
+        <v>0.01220384277355784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1710,19 +1710,19 @@
         <v>2835</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>979</v>
+        <v>707</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7021</v>
+        <v>6929</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003141721741140606</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001085365252936281</v>
+        <v>0.0007829013970461317</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.007780410897954822</v>
+        <v>0.007677634633649172</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>37227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27576</v>
+        <v>25506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52653</v>
+        <v>51068</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07731649994324261</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05727269235085763</v>
+        <v>0.05297301495982366</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1093543780394029</v>
+        <v>0.1060623901072685</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -1760,19 +1760,19 @@
         <v>20774</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14496</v>
+        <v>14128</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28639</v>
+        <v>28192</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04934848819891714</v>
+        <v>0.04934848819891713</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03443533498336323</v>
+        <v>0.03356173769757057</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06803117137977592</v>
+        <v>0.06696842938029139</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>67</v>
@@ -1781,19 +1781,19 @@
         <v>58001</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>45301</v>
+        <v>44501</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73524</v>
+        <v>72365</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06427026993011989</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05019783282109937</v>
+        <v>0.04931072146498805</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08147127275579048</v>
+        <v>0.08018646268297845</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>248089</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225745</v>
+        <v>225106</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268128</v>
+        <v>270451</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.530915436075028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4830983874714776</v>
+        <v>0.481731244038874</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5737991791094815</v>
+        <v>0.5787691264126766</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -1906,19 +1906,19 @@
         <v>62143</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51219</v>
+        <v>50680</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74107</v>
+        <v>73935</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3345003119231308</v>
+        <v>0.3345003119231307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2756993452532603</v>
+        <v>0.272794969509795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3988965839780299</v>
+        <v>0.3979681299357209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>330</v>
@@ -1927,19 +1927,19 @@
         <v>310232</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>284425</v>
+        <v>288693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333973</v>
+        <v>336052</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.475040608926181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4355230224403375</v>
+        <v>0.4420590203354038</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5113924370712795</v>
+        <v>0.5145761503337815</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>43379</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32518</v>
+        <v>32388</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56701</v>
+        <v>55763</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.09283086114764831</v>
+        <v>0.09283086114764832</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06958947519764495</v>
+        <v>0.06931145980726712</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1213408560752149</v>
+        <v>0.1193341833518045</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1977,19 +1977,19 @@
         <v>7412</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3856</v>
+        <v>4070</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13131</v>
+        <v>13374</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.03989893908947203</v>
+        <v>0.03989893908947202</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02075422985130446</v>
+        <v>0.02190803172263716</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.070682504195174</v>
+        <v>0.07199011980188184</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -1998,19 +1998,19 @@
         <v>50791</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>38956</v>
+        <v>39663</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>64684</v>
+        <v>64444</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07777315106331888</v>
+        <v>0.07777315106331886</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0596503068553199</v>
+        <v>0.06073325727377757</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09904715744801471</v>
+        <v>0.09867859991297354</v>
       </c>
     </row>
     <row r="22">
@@ -2030,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6623</v>
+        <v>7072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003821157239381776</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01417360662088493</v>
+        <v>0.01513484617972565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3399</v>
+        <v>3321</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003556486601539183</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01829756659467092</v>
+        <v>0.0178786550096712</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2069,19 +2069,19 @@
         <v>2446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8013</v>
+        <v>7243</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003745865551917865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0009031497351560373</v>
+        <v>0.0008935694314197632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01227025287370509</v>
+        <v>0.01109005169507301</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>3098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8660</v>
+        <v>8421</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006629710744645947</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001771090813270328</v>
+        <v>0.00176351458902743</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01853345628357917</v>
+        <v>0.01802157528006132</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>3098</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9052</v>
+        <v>8411</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004743736110546631</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001276143782303285</v>
+        <v>0.001276830395350378</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01386052160804166</v>
+        <v>0.01287920221836871</v>
       </c>
     </row>
     <row r="24">
@@ -2161,19 +2161,19 @@
         <v>44092</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33254</v>
+        <v>33497</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56987</v>
+        <v>58127</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09435774584401796</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07116335865877145</v>
+        <v>0.07168323332833006</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1219522356837519</v>
+        <v>0.1243921451790231</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -2182,19 +2182,19 @@
         <v>19144</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13098</v>
+        <v>13063</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26577</v>
+        <v>26244</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1030486521121835</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0705044829116456</v>
+        <v>0.07031231189765429</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1430540624322817</v>
+        <v>0.1412619644850536</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>84</v>
@@ -2203,19 +2203,19 @@
         <v>63236</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50546</v>
+        <v>50652</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77790</v>
+        <v>78207</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09683007524124422</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07739833218166613</v>
+        <v>0.07755987296343368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1191156411188636</v>
+        <v>0.1197532588960461</v>
       </c>
     </row>
     <row r="25">
@@ -2232,19 +2232,19 @@
         <v>12417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6418</v>
+        <v>6587</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22392</v>
+        <v>22914</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02657175032584046</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01373558141968643</v>
+        <v>0.01409720332770489</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04791852362970149</v>
+        <v>0.04903614990135369</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -2253,19 +2253,19 @@
         <v>4446</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1616</v>
+        <v>1524</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10223</v>
+        <v>9904</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0239299804322525</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008698496670448905</v>
+        <v>0.008202344130160143</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0550249216321098</v>
+        <v>0.05330840793366506</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>17</v>
@@ -2274,19 +2274,19 @@
         <v>16862</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9891</v>
+        <v>10030</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>26985</v>
+        <v>27656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02582023774854472</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01514527035812088</v>
+        <v>0.01535847424693887</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04132097875180456</v>
+        <v>0.04234728792881279</v>
       </c>
     </row>
     <row r="26">
@@ -2303,19 +2303,19 @@
         <v>114426</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>97773</v>
+        <v>96342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>135074</v>
+        <v>134363</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2448733386234376</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2092363108284287</v>
+        <v>0.2061726875468072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2890612453239788</v>
+        <v>0.2875391337344633</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>149</v>
@@ -2324,19 +2324,19 @@
         <v>91973</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>79933</v>
+        <v>80166</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104497</v>
+        <v>103933</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4950656298414221</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4302577669846258</v>
+        <v>0.4315110365137116</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5624785743811691</v>
+        <v>0.5594398570691012</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>272</v>
@@ -2345,19 +2345,19 @@
         <v>206399</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>185328</v>
+        <v>184551</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>228146</v>
+        <v>227847</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3160463253582468</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2837811213154061</v>
+        <v>0.2825922588480358</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3493460309617638</v>
+        <v>0.3488883219009724</v>
       </c>
     </row>
     <row r="27">
@@ -2449,19 +2449,19 @@
         <v>874120</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>844772</v>
+        <v>841572</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>902949</v>
+        <v>901209</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7766306869160321</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7505564030599283</v>
+        <v>0.7477129710143656</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8022443713559334</v>
+        <v>0.800698779399249</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1002</v>
@@ -2470,19 +2470,19 @@
         <v>709333</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>691011</v>
+        <v>688320</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>728909</v>
+        <v>729410</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8298292390221903</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8083951739094406</v>
+        <v>0.8052472055344425</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8527307570823354</v>
+        <v>0.8533163977110524</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1850</v>
@@ -2491,19 +2491,19 @@
         <v>1583453</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1548665</v>
+        <v>1549778</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1617868</v>
+        <v>1617428</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7995935183817325</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7820266315824833</v>
+        <v>0.7825886848897636</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8169717171566333</v>
+        <v>0.8167494101785078</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>45122</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>31658</v>
+        <v>33088</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63693</v>
+        <v>65798</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04008973214754068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02812737066430432</v>
+        <v>0.02939749305681425</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05658902489330227</v>
+        <v>0.05845937660936609</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>22</v>
@@ -2541,19 +2541,19 @@
         <v>18102</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11763</v>
+        <v>11519</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27383</v>
+        <v>27382</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02117728644380834</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01376114041746977</v>
+        <v>0.01347548403218082</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03203492893883279</v>
+        <v>0.03203336442483481</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>63</v>
@@ -2562,19 +2562,19 @@
         <v>63224</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>47504</v>
+        <v>49018</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>84749</v>
+        <v>82652</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03192628998406978</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02398805898624218</v>
+        <v>0.02475271086703905</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04279562207926933</v>
+        <v>0.04173639246534664</v>
       </c>
     </row>
     <row r="30">
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4210</v>
+        <v>4818</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.001606448557795345</v>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.004925540759974729</v>
+        <v>0.005636224486185222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2</v>
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4816</v>
+        <v>4627</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0006934137496328928</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.002431695660731721</v>
+        <v>0.00233632630720985</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>2237</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6297</v>
+        <v>6632</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002617085961782002</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0008197122854461709</v>
+        <v>0.0008225923219230762</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.007366135490500593</v>
+        <v>0.007758357692723174</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2688,19 +2688,19 @@
         <v>2237</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6147</v>
+        <v>6824</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001129649238417787</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0003548215785850712</v>
+        <v>0.0003552870975361514</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.003103919470171826</v>
+        <v>0.003446009676714528</v>
       </c>
     </row>
     <row r="32">
@@ -2717,19 +2717,19 @@
         <v>32199</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>21771</v>
+        <v>21335</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46556</v>
+        <v>45368</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02860829424337814</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01934288163446894</v>
+        <v>0.01895553901445597</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04136353369632875</v>
+        <v>0.04030820440370867</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>26</v>
@@ -2738,19 +2738,19 @@
         <v>17316</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>11423</v>
+        <v>11096</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25632</v>
+        <v>27092</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02025803330433102</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01336312963955541</v>
+        <v>0.01298118505965557</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02998631553353331</v>
+        <v>0.03169451882044227</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>61</v>
@@ -2759,19 +2759,19 @@
         <v>49516</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>37408</v>
+        <v>37110</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>65085</v>
+        <v>65971</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02500395489490621</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0188898402089386</v>
+        <v>0.0187391956718428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03286570379579909</v>
+        <v>0.0333133271843974</v>
       </c>
     </row>
     <row r="33">
@@ -2788,19 +2788,19 @@
         <v>6737</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2821</v>
+        <v>2783</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>14600</v>
+        <v>13969</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.005985361429301489</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002506084494780402</v>
+        <v>0.002472813759423645</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01297187361276886</v>
+        <v>0.01241149109611753</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>7</v>
@@ -2809,19 +2809,19 @@
         <v>4507</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1759</v>
+        <v>1698</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>9711</v>
+        <v>9540</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.005272892653031777</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.002057807237452898</v>
+        <v>0.001986932279302889</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01136055507741274</v>
+        <v>0.01116031097186181</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>14</v>
@@ -2830,19 +2830,19 @@
         <v>11244</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>6065</v>
+        <v>6385</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>19665</v>
+        <v>20515</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.005677828615223991</v>
+        <v>0.00567782861522399</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.003062750565053985</v>
+        <v>0.003224000914103745</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.009930040663732093</v>
+        <v>0.01035947355751711</v>
       </c>
     </row>
     <row r="34">
@@ -2859,19 +2859,19 @@
         <v>167350</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>142955</v>
+        <v>144757</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>191571</v>
+        <v>195894</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1486859252637476</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1270115130878395</v>
+        <v>0.1286129313566428</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1702058805806143</v>
+        <v>0.1740458934879959</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>158</v>
@@ -2880,19 +2880,19 @@
         <v>101925</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>86873</v>
+        <v>84997</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>118969</v>
+        <v>119889</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1192390140570612</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1016300784864321</v>
+        <v>0.09943610757503384</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1391787324522344</v>
+        <v>0.1402550367347487</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>340</v>
@@ -2901,19 +2901,19 @@
         <v>269275</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>241010</v>
+        <v>240528</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>297200</v>
+        <v>296901</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1359753451360168</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1217025932379151</v>
+        <v>0.1214587233215496</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1500764483434759</v>
+        <v>0.1499253334240138</v>
       </c>
     </row>
     <row r="35">
@@ -3005,19 +3005,19 @@
         <v>525074</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>509359</v>
+        <v>508517</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>536363</v>
+        <v>536753</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.9309885782299634</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.9031244956142076</v>
+        <v>0.9016329886190125</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.951004729235843</v>
+        <v>0.9516963402852464</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1174</v>
@@ -3026,19 +3026,19 @@
         <v>756473</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>745380</v>
+        <v>744695</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>767109</v>
+        <v>766750</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.940158269426447</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.9263712322205137</v>
+        <v>0.9255205681881804</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9533765522034505</v>
+        <v>0.9529313505136683</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1682</v>
@@ -3047,19 +3047,19 @@
         <v>1281547</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1262117</v>
+        <v>1262491</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1297639</v>
+        <v>1297499</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.9363795177181433</v>
+        <v>0.9363795177181434</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.9221827595755144</v>
+        <v>0.9224561136422419</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9481374121492077</v>
+        <v>0.9480352065855346</v>
       </c>
     </row>
     <row r="37">
@@ -3076,19 +3076,19 @@
         <v>12806</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7186</v>
+        <v>7424</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21011</v>
+        <v>21969</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02270621758535933</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01274203577972249</v>
+        <v>0.01316249875611139</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.03725357351220963</v>
+        <v>0.03895286895090749</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>11</v>
@@ -3097,19 +3097,19 @@
         <v>6213</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3105</v>
+        <v>2963</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10649</v>
+        <v>10758</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.00772144633232805</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.003859059380086698</v>
+        <v>0.003682488904420554</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.01323481501493966</v>
+        <v>0.01337040225633002</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -3118,19 +3118,19 @@
         <v>19019</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>12343</v>
+        <v>12093</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>28647</v>
+        <v>28863</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.01389654304579708</v>
+        <v>0.01389654304579709</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009018502074146085</v>
+        <v>0.008836160449836837</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02093149414917281</v>
+        <v>0.02108917120504473</v>
       </c>
     </row>
     <row r="38">
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>4684</v>
+        <v>4652</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.001661978512327891</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.00582107397349393</v>
+        <v>0.005781233146007835</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>4706</v>
+        <v>5160</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.0009770913107794506</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.003438704716498515</v>
+        <v>0.003769870082515461</v>
       </c>
     </row>
     <row r="40">
@@ -3257,19 +3257,19 @@
         <v>5801</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1972</v>
+        <v>2009</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13924</v>
+        <v>13602</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01028529506047562</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003495631937332002</v>
+        <v>0.003561235565577984</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02468847925564403</v>
+        <v>0.02411666462055496</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>7</v>
@@ -3278,19 +3278,19 @@
         <v>5646</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2211</v>
+        <v>2319</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>12887</v>
+        <v>13345</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.00701755917845027</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002747964665436563</v>
+        <v>0.002881982466401522</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01601667488463438</v>
+        <v>0.01658495457536114</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>12</v>
@@ -3299,19 +3299,19 @@
         <v>11447</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>5973</v>
+        <v>6121</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>20385</v>
+        <v>21021</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008364165327109204</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.004364346840513323</v>
+        <v>0.004472582109805347</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01489483568707446</v>
+        <v>0.01535936076238813</v>
       </c>
     </row>
     <row r="41">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10840</v>
+        <v>12586</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004368117648051067</v>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01921926130794332</v>
+        <v>0.02231539674879605</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4196</v>
+        <v>5512</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.001711088577194834</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.005214343766267102</v>
+        <v>0.00685049072698983</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3370,19 +3370,19 @@
         <v>3840</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13941</v>
+        <v>14197</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.002806027646065634</v>
+        <v>0.002806027646065635</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0005030786016489822</v>
+        <v>0.0005043312121103239</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01018603783421064</v>
+        <v>0.01037304406927575</v>
       </c>
     </row>
     <row r="42">
@@ -3399,19 +3399,19 @@
         <v>17851</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10400</v>
+        <v>10124</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30325</v>
+        <v>30643</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.03165179147615063</v>
+        <v>0.03165179147615064</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01844013653714329</v>
+        <v>0.0179503346663001</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.05376881579817343</v>
+        <v>0.05433110732061989</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>54</v>
@@ -3420,19 +3420,19 @@
         <v>33577</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>25098</v>
+        <v>25084</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>42861</v>
+        <v>43216</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04172965797325183</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03119182292003974</v>
+        <v>0.03117515619301169</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05326844239316644</v>
+        <v>0.05370994718030818</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>69</v>
@@ -3441,19 +3441,19 @@
         <v>51428</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>40582</v>
+        <v>39307</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>68112</v>
+        <v>66435</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03757665495210526</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02965164739707631</v>
+        <v>0.0287201273510451</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.04976725651305496</v>
+        <v>0.04854142449271745</v>
       </c>
     </row>
     <row r="43">
@@ -3545,19 +3545,19 @@
         <v>2293516</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2243583</v>
+        <v>2246349</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2343022</v>
+        <v>2347374</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.7196527410101915</v>
+        <v>0.7196527410101916</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7039848164115667</v>
+        <v>0.7048528878616419</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7351864590655743</v>
+        <v>0.7365522287747205</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3232</v>
@@ -3566,19 +3566,19 @@
         <v>2217837</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2181128</v>
+        <v>2184069</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2252966</v>
+        <v>2253405</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.8053411231352752</v>
+        <v>0.8053411231352754</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.792011482836291</v>
+        <v>0.7930792309432882</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8180972072609787</v>
+        <v>0.8182567568418198</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5458</v>
@@ -3587,19 +3587,19 @@
         <v>4511353</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4449482</v>
+        <v>4454235</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>4576329</v>
+        <v>4579067</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.7593737673065406</v>
+        <v>0.7593737673065407</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7489593023697846</v>
+        <v>0.7497593995193059</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7703108009202005</v>
+        <v>0.7707717499261328</v>
       </c>
     </row>
     <row r="45">
@@ -3616,19 +3616,19 @@
         <v>263101</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>233623</v>
+        <v>230108</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>298092</v>
+        <v>294747</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.08255492510999658</v>
+        <v>0.0825549251099966</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.0733054413531498</v>
+        <v>0.07220271791452837</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0935345093124577</v>
+        <v>0.09248484185557547</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>149</v>
@@ -3637,19 +3637,19 @@
         <v>108029</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>92103</v>
+        <v>91571</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>125227</v>
+        <v>125908</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.0392276242036225</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03344444103844257</v>
+        <v>0.03325132231721421</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04547252396331057</v>
+        <v>0.04571972280238295</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>422</v>
@@ -3658,19 +3658,19 @@
         <v>371130</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>333711</v>
+        <v>336706</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>406915</v>
+        <v>409181</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.06247046539713055</v>
+        <v>0.06247046539713054</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.05617191654956109</v>
+        <v>0.05667604080340685</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.06849397718607529</v>
+        <v>0.06887543650249019</v>
       </c>
     </row>
     <row r="46">
@@ -3687,19 +3687,19 @@
         <v>15637</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8961</v>
+        <v>9439</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>25375</v>
+        <v>25358</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.004906554184551971</v>
+        <v>0.004906554184551972</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.002811632181427451</v>
+        <v>0.002961738411594252</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.007962032303349111</v>
+        <v>0.007956785593208475</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>10</v>
@@ -3708,19 +3708,19 @@
         <v>6989</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3618</v>
+        <v>3329</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12886</v>
+        <v>12497</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.002538014505941546</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.001313829074021098</v>
+        <v>0.00120894004477913</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004679283165399589</v>
+        <v>0.004537820734840572</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>27</v>
@@ -3729,19 +3729,19 @@
         <v>22627</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>15137</v>
+        <v>15367</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>32762</v>
+        <v>32803</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.003808612730590379</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.002547908833803454</v>
+        <v>0.002586604230996021</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.005514586500081792</v>
+        <v>0.005521560209633204</v>
       </c>
     </row>
     <row r="47">
@@ -3758,19 +3758,19 @@
         <v>33668</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>23015</v>
+        <v>23412</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>49332</v>
+        <v>49380</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01056436217226113</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.00722170359070312</v>
+        <v>0.007346168085248819</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01547936158507298</v>
+        <v>0.01549422054483707</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>26</v>
@@ -3779,19 +3779,19 @@
         <v>19059</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>12469</v>
+        <v>12720</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>27682</v>
+        <v>27823</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.006920620084638224</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.004527912267837456</v>
+        <v>0.004618713397800925</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01005196167872553</v>
+        <v>0.01010316475068975</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>59</v>
@@ -3800,19 +3800,19 @@
         <v>52727</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>40921</v>
+        <v>40279</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>71439</v>
+        <v>70482</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.008875298011050701</v>
+        <v>0.008875298011050699</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006887971414615103</v>
+        <v>0.006779948908246621</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01202503479898433</v>
+        <v>0.01186381317801408</v>
       </c>
     </row>
     <row r="48">
@@ -3829,19 +3829,19 @@
         <v>124363</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>105803</v>
+        <v>104237</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>147428</v>
+        <v>144626</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.03902212728493509</v>
+        <v>0.0390221272849351</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03319852158330901</v>
+        <v>0.03270729738341904</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.04625965159836604</v>
+        <v>0.04538045621444657</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>103</v>
@@ -3850,19 +3850,19 @@
         <v>67873</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>55681</v>
+        <v>54935</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>82528</v>
+        <v>83399</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02464592677459673</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02021899476912958</v>
+        <v>0.01994804395235831</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02996767979899629</v>
+        <v>0.03028379534237272</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>246</v>
@@ -3871,19 +3871,19 @@
         <v>192235</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>168721</v>
+        <v>169230</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>219954</v>
+        <v>216625</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03235800988242463</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02840002038640648</v>
+        <v>0.02848567884802671</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.03702375993499517</v>
+        <v>0.03646341530726575</v>
       </c>
     </row>
     <row r="49">
@@ -3900,19 +3900,19 @@
         <v>44965</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>33304</v>
+        <v>31630</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>61540</v>
+        <v>59934</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.01410896036985944</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01045007780497342</v>
+        <v>0.009924703929817048</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.01930987647692223</v>
+        <v>0.01880594722705375</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>24</v>
@@ -3921,19 +3921,19 @@
         <v>16750</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>11049</v>
+        <v>11145</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>24476</v>
+        <v>25452</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.006082266887572841</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.004012024291594006</v>
+        <v>0.004046912779003223</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.008887895316053789</v>
+        <v>0.009242233516156512</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>68</v>
@@ -3942,19 +3942,19 @@
         <v>61715</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>47479</v>
+        <v>46994</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>79215</v>
+        <v>78448</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.01038817004828201</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.007991823281601848</v>
+        <v>0.007910298226933624</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01333395106126488</v>
+        <v>0.01320477098113854</v>
       </c>
     </row>
     <row r="50">
@@ -3971,19 +3971,19 @@
         <v>411726</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>376315</v>
+        <v>373986</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>452294</v>
+        <v>452310</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1291903298682042</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1180790367013413</v>
+        <v>0.1173482026610965</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1419194075956657</v>
+        <v>0.1419244527495133</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>484</v>
@@ -3992,19 +3992,19 @@
         <v>317373</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>291044</v>
+        <v>290109</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>347738</v>
+        <v>345029</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1152444244083529</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1056840207300954</v>
+        <v>0.1053444245977297</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1262706247530424</v>
+        <v>0.1252868426546231</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>919</v>
@@ -4013,19 +4013,19 @@
         <v>729099</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>684150</v>
+        <v>681446</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>777102</v>
+        <v>777059</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1227256766239811</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1151595941551214</v>
+        <v>0.114704517549028</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1308057558824157</v>
+        <v>0.1307985801577973</v>
       </c>
     </row>
     <row r="51">
